--- a/Order.xlsx
+++ b/Order.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +470,11 @@
           <t>Maximum Inventory</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Times of replenishments</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -497,7 +502,10 @@
         <v>668</v>
       </c>
       <c r="G2" t="n">
-        <v>1648</v>
+        <v>1631</v>
+      </c>
+      <c r="H2" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="3">
@@ -526,7 +534,10 @@
         <v>795</v>
       </c>
       <c r="G3" t="n">
-        <v>1784</v>
+        <v>1756</v>
+      </c>
+      <c r="H3" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="4">
@@ -555,7 +566,10 @@
         <v>1208</v>
       </c>
       <c r="G4" t="n">
-        <v>2199</v>
+        <v>2192</v>
+      </c>
+      <c r="H4" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="5">
@@ -584,7 +598,10 @@
         <v>1387</v>
       </c>
       <c r="G5" t="n">
-        <v>2309</v>
+        <v>2299</v>
+      </c>
+      <c r="H5" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -701,10 +718,10 @@
         <v>1000</v>
       </c>
       <c r="C2" t="n">
-        <v>556</v>
+        <v>456</v>
       </c>
       <c r="D2" t="n">
-        <v>444</v>
+        <v>544</v>
       </c>
       <c r="E2" t="n">
         <v>1000</v>
@@ -713,10 +730,10 @@
         <v>1000</v>
       </c>
       <c r="G2" t="n">
-        <v>389</v>
+        <v>370</v>
       </c>
       <c r="H2" t="n">
-        <v>611</v>
+        <v>630</v>
       </c>
       <c r="I2" t="n">
         <v>1000</v>
@@ -725,10 +742,10 @@
         <v>1000</v>
       </c>
       <c r="K2" t="n">
-        <v>463</v>
+        <v>511</v>
       </c>
       <c r="L2" t="n">
-        <v>537</v>
+        <v>489</v>
       </c>
       <c r="M2" t="n">
         <v>1000</v>
@@ -737,10 +754,10 @@
         <v>1000</v>
       </c>
       <c r="O2" t="n">
-        <v>394</v>
+        <v>499</v>
       </c>
       <c r="P2" t="n">
-        <v>606</v>
+        <v>501</v>
       </c>
       <c r="Q2" t="n">
         <v>1000</v>
@@ -751,49 +768,49 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1444</v>
+        <v>1544</v>
       </c>
       <c r="C3" t="n">
-        <v>470</v>
+        <v>340</v>
       </c>
       <c r="D3" t="n">
-        <v>974</v>
+        <v>1204</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1611</v>
+        <v>1630</v>
       </c>
       <c r="G3" t="n">
-        <v>509</v>
+        <v>412</v>
       </c>
       <c r="H3" t="n">
+        <v>1218</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1489</v>
+      </c>
+      <c r="K3" t="n">
+        <v>557</v>
+      </c>
+      <c r="L3" t="n">
+        <v>932</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1501</v>
+      </c>
+      <c r="O3" t="n">
+        <v>399</v>
+      </c>
+      <c r="P3" t="n">
         <v>1102</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1537</v>
-      </c>
-      <c r="K3" t="n">
-        <v>483</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1054</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1606</v>
-      </c>
-      <c r="O3" t="n">
-        <v>477</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1129</v>
       </c>
       <c r="Q3" t="n">
         <v>1000</v>
@@ -804,49 +821,49 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>974</v>
+        <v>1204</v>
       </c>
       <c r="C4" t="n">
-        <v>342</v>
+        <v>479</v>
       </c>
       <c r="D4" t="n">
-        <v>632</v>
+        <v>725</v>
       </c>
       <c r="E4" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1102</v>
+        <v>1218</v>
       </c>
       <c r="G4" t="n">
-        <v>487</v>
+        <v>468</v>
       </c>
       <c r="H4" t="n">
-        <v>615</v>
+        <v>750</v>
       </c>
       <c r="I4" t="n">
         <v>1000</v>
       </c>
       <c r="J4" t="n">
-        <v>2054</v>
+        <v>1932</v>
       </c>
       <c r="K4" t="n">
-        <v>514</v>
+        <v>378</v>
       </c>
       <c r="L4" t="n">
-        <v>1540</v>
+        <v>1554</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>2129</v>
+        <v>2102</v>
       </c>
       <c r="O4" t="n">
-        <v>442</v>
+        <v>465</v>
       </c>
       <c r="P4" t="n">
-        <v>1687</v>
+        <v>1637</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -857,49 +874,49 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1632</v>
+        <v>725</v>
       </c>
       <c r="C5" t="n">
-        <v>523</v>
+        <v>419</v>
       </c>
       <c r="D5" t="n">
-        <v>1109</v>
+        <v>306</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F5" t="n">
-        <v>1615</v>
+        <v>1750</v>
       </c>
       <c r="G5" t="n">
-        <v>470</v>
+        <v>548</v>
       </c>
       <c r="H5" t="n">
-        <v>1145</v>
+        <v>1202</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1540</v>
+        <v>1554</v>
       </c>
       <c r="K5" t="n">
-        <v>384</v>
+        <v>554</v>
       </c>
       <c r="L5" t="n">
-        <v>1156</v>
+        <v>1000</v>
       </c>
       <c r="M5" t="n">
         <v>1000</v>
       </c>
       <c r="N5" t="n">
-        <v>1687</v>
+        <v>1637</v>
       </c>
       <c r="O5" t="n">
-        <v>441</v>
+        <v>343</v>
       </c>
       <c r="P5" t="n">
-        <v>1246</v>
+        <v>1294</v>
       </c>
       <c r="Q5" t="n">
         <v>1000</v>
@@ -910,49 +927,49 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1109</v>
+        <v>1306</v>
       </c>
       <c r="C6" t="n">
-        <v>461</v>
+        <v>486</v>
       </c>
       <c r="D6" t="n">
-        <v>648</v>
+        <v>820</v>
       </c>
       <c r="E6" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1145</v>
+        <v>1202</v>
       </c>
       <c r="G6" t="n">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="H6" t="n">
-        <v>691</v>
+        <v>756</v>
       </c>
       <c r="I6" t="n">
         <v>1000</v>
       </c>
       <c r="J6" t="n">
-        <v>2156</v>
+        <v>2000</v>
       </c>
       <c r="K6" t="n">
-        <v>524</v>
+        <v>360</v>
       </c>
       <c r="L6" t="n">
-        <v>1632</v>
+        <v>1640</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>2246</v>
+        <v>2294</v>
       </c>
       <c r="O6" t="n">
-        <v>481</v>
+        <v>459</v>
       </c>
       <c r="P6" t="n">
-        <v>1765</v>
+        <v>1835</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -963,52 +980,52 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>1648</v>
+        <v>820</v>
       </c>
       <c r="C7" t="n">
-        <v>380</v>
+        <v>455</v>
       </c>
       <c r="D7" t="n">
-        <v>1268</v>
+        <v>365</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F7" t="n">
-        <v>1691</v>
+        <v>1756</v>
       </c>
       <c r="G7" t="n">
-        <v>529</v>
+        <v>479</v>
       </c>
       <c r="H7" t="n">
-        <v>1162</v>
+        <v>1277</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1632</v>
+        <v>1640</v>
       </c>
       <c r="K7" t="n">
-        <v>393</v>
+        <v>341</v>
       </c>
       <c r="L7" t="n">
-        <v>1239</v>
+        <v>1299</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>1765</v>
+        <v>1835</v>
       </c>
       <c r="O7" t="n">
-        <v>456</v>
+        <v>390</v>
       </c>
       <c r="P7" t="n">
-        <v>1309</v>
+        <v>1445</v>
       </c>
       <c r="Q7" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1016,52 +1033,52 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>1268</v>
+        <v>1365</v>
       </c>
       <c r="C8" t="n">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="D8" t="n">
-        <v>774</v>
+        <v>883</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1162</v>
+        <v>1277</v>
       </c>
       <c r="G8" t="n">
-        <v>458</v>
+        <v>475</v>
       </c>
       <c r="H8" t="n">
-        <v>704</v>
+        <v>802</v>
       </c>
       <c r="I8" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>1239</v>
+        <v>1299</v>
       </c>
       <c r="K8" t="n">
-        <v>417</v>
+        <v>467</v>
       </c>
       <c r="L8" t="n">
-        <v>822</v>
+        <v>832</v>
       </c>
       <c r="M8" t="n">
         <v>1000</v>
       </c>
       <c r="N8" t="n">
-        <v>2309</v>
+        <v>1445</v>
       </c>
       <c r="O8" t="n">
-        <v>445</v>
+        <v>532</v>
       </c>
       <c r="P8" t="n">
-        <v>1864</v>
+        <v>913</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
@@ -1069,49 +1086,49 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>774</v>
+        <v>883</v>
       </c>
       <c r="C9" t="n">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="D9" t="n">
-        <v>418</v>
+        <v>542</v>
       </c>
       <c r="E9" t="n">
         <v>1000</v>
       </c>
       <c r="F9" t="n">
-        <v>1704</v>
+        <v>802</v>
       </c>
       <c r="G9" t="n">
-        <v>550</v>
+        <v>419</v>
       </c>
       <c r="H9" t="n">
-        <v>1154</v>
+        <v>383</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J9" t="n">
-        <v>1822</v>
+        <v>1832</v>
       </c>
       <c r="K9" t="n">
-        <v>484</v>
+        <v>508</v>
       </c>
       <c r="L9" t="n">
-        <v>1338</v>
+        <v>1324</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>1864</v>
+        <v>1913</v>
       </c>
       <c r="O9" t="n">
-        <v>462</v>
+        <v>392</v>
       </c>
       <c r="P9" t="n">
-        <v>1402</v>
+        <v>1521</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -1122,49 +1139,49 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>1418</v>
+        <v>1542</v>
       </c>
       <c r="C10" t="n">
-        <v>458</v>
+        <v>504</v>
       </c>
       <c r="D10" t="n">
-        <v>960</v>
+        <v>1038</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1154</v>
+        <v>1383</v>
       </c>
       <c r="G10" t="n">
-        <v>542</v>
+        <v>557</v>
       </c>
       <c r="H10" t="n">
-        <v>612</v>
+        <v>826</v>
       </c>
       <c r="I10" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1338</v>
+        <v>1324</v>
       </c>
       <c r="K10" t="n">
-        <v>385</v>
+        <v>538</v>
       </c>
       <c r="L10" t="n">
-        <v>953</v>
+        <v>786</v>
       </c>
       <c r="M10" t="n">
         <v>1000</v>
       </c>
       <c r="N10" t="n">
-        <v>1402</v>
+        <v>1521</v>
       </c>
       <c r="O10" t="n">
-        <v>479</v>
+        <v>366</v>
       </c>
       <c r="P10" t="n">
-        <v>923</v>
+        <v>1155</v>
       </c>
       <c r="Q10" t="n">
         <v>1000</v>
@@ -1175,49 +1192,49 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>960</v>
+        <v>1038</v>
       </c>
       <c r="C11" t="n">
-        <v>490</v>
+        <v>412</v>
       </c>
       <c r="D11" t="n">
-        <v>470</v>
+        <v>626</v>
       </c>
       <c r="E11" t="n">
         <v>1000</v>
       </c>
       <c r="F11" t="n">
-        <v>1612</v>
+        <v>826</v>
       </c>
       <c r="G11" t="n">
-        <v>488</v>
+        <v>425</v>
       </c>
       <c r="H11" t="n">
-        <v>1124</v>
+        <v>401</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J11" t="n">
-        <v>1953</v>
+        <v>1786</v>
       </c>
       <c r="K11" t="n">
-        <v>415</v>
+        <v>506</v>
       </c>
       <c r="L11" t="n">
-        <v>1538</v>
+        <v>1280</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1923</v>
+        <v>2155</v>
       </c>
       <c r="O11" t="n">
-        <v>382</v>
+        <v>342</v>
       </c>
       <c r="P11" t="n">
-        <v>1541</v>
+        <v>1813</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -1228,52 +1245,52 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>1470</v>
+        <v>1626</v>
       </c>
       <c r="C12" t="n">
-        <v>437</v>
+        <v>418</v>
       </c>
       <c r="D12" t="n">
-        <v>1033</v>
+        <v>1208</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1124</v>
+        <v>1401</v>
       </c>
       <c r="G12" t="n">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="H12" t="n">
-        <v>673</v>
+        <v>945</v>
       </c>
       <c r="I12" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1538</v>
+        <v>1280</v>
       </c>
       <c r="K12" t="n">
-        <v>495</v>
+        <v>373</v>
       </c>
       <c r="L12" t="n">
-        <v>1043</v>
+        <v>907</v>
       </c>
       <c r="M12" t="n">
         <v>1000</v>
       </c>
       <c r="N12" t="n">
-        <v>1541</v>
+        <v>1813</v>
       </c>
       <c r="O12" t="n">
-        <v>456</v>
+        <v>393</v>
       </c>
       <c r="P12" t="n">
-        <v>1085</v>
+        <v>1420</v>
       </c>
       <c r="Q12" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1281,52 +1298,52 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>1033</v>
+        <v>1208</v>
       </c>
       <c r="C13" t="n">
-        <v>512</v>
+        <v>394</v>
       </c>
       <c r="D13" t="n">
-        <v>521</v>
+        <v>814</v>
       </c>
       <c r="E13" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1673</v>
+        <v>945</v>
       </c>
       <c r="G13" t="n">
-        <v>447</v>
+        <v>557</v>
       </c>
       <c r="H13" t="n">
-        <v>1226</v>
+        <v>388</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J13" t="n">
-        <v>2043</v>
+        <v>1907</v>
       </c>
       <c r="K13" t="n">
-        <v>435</v>
+        <v>496</v>
       </c>
       <c r="L13" t="n">
-        <v>1608</v>
+        <v>1411</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>2085</v>
+        <v>1420</v>
       </c>
       <c r="O13" t="n">
-        <v>442</v>
+        <v>476</v>
       </c>
       <c r="P13" t="n">
-        <v>1643</v>
+        <v>944</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
@@ -1334,52 +1351,52 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>1521</v>
+        <v>814</v>
       </c>
       <c r="C14" t="n">
-        <v>488</v>
+        <v>522</v>
       </c>
       <c r="D14" t="n">
-        <v>1033</v>
+        <v>292</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F14" t="n">
-        <v>1226</v>
+        <v>1388</v>
       </c>
       <c r="G14" t="n">
-        <v>497</v>
+        <v>529</v>
       </c>
       <c r="H14" t="n">
-        <v>729</v>
+        <v>859</v>
       </c>
       <c r="I14" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1608</v>
+        <v>1411</v>
       </c>
       <c r="K14" t="n">
-        <v>409</v>
+        <v>473</v>
       </c>
       <c r="L14" t="n">
-        <v>1199</v>
+        <v>938</v>
       </c>
       <c r="M14" t="n">
         <v>1000</v>
       </c>
       <c r="N14" t="n">
-        <v>1643</v>
+        <v>1944</v>
       </c>
       <c r="O14" t="n">
-        <v>453</v>
+        <v>508</v>
       </c>
       <c r="P14" t="n">
-        <v>1190</v>
+        <v>1436</v>
       </c>
       <c r="Q14" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1387,52 +1404,52 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>1033</v>
+        <v>1292</v>
       </c>
       <c r="C15" t="n">
-        <v>362</v>
+        <v>376</v>
       </c>
       <c r="D15" t="n">
-        <v>671</v>
+        <v>916</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1729</v>
+        <v>859</v>
       </c>
       <c r="G15" t="n">
-        <v>401</v>
+        <v>431</v>
       </c>
       <c r="H15" t="n">
-        <v>1328</v>
+        <v>428</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J15" t="n">
-        <v>2199</v>
+        <v>1938</v>
       </c>
       <c r="K15" t="n">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="L15" t="n">
-        <v>1796</v>
+        <v>1536</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>2190</v>
+        <v>1436</v>
       </c>
       <c r="O15" t="n">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="P15" t="n">
-        <v>1814</v>
+        <v>1055</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
@@ -1440,49 +1457,49 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>671</v>
+        <v>916</v>
       </c>
       <c r="C16" t="n">
-        <v>440</v>
+        <v>529</v>
       </c>
       <c r="D16" t="n">
-        <v>231</v>
+        <v>387</v>
       </c>
       <c r="E16" t="n">
         <v>1000</v>
       </c>
       <c r="F16" t="n">
-        <v>1328</v>
+        <v>1428</v>
       </c>
       <c r="G16" t="n">
-        <v>369</v>
+        <v>442</v>
       </c>
       <c r="H16" t="n">
-        <v>959</v>
+        <v>986</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1796</v>
+        <v>1536</v>
       </c>
       <c r="K16" t="n">
-        <v>471</v>
+        <v>344</v>
       </c>
       <c r="L16" t="n">
-        <v>1325</v>
+        <v>1192</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="N16" t="n">
-        <v>1814</v>
+        <v>2055</v>
       </c>
       <c r="O16" t="n">
-        <v>393</v>
+        <v>422</v>
       </c>
       <c r="P16" t="n">
-        <v>1421</v>
+        <v>1633</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -1493,49 +1510,49 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>1231</v>
+        <v>1387</v>
       </c>
       <c r="C17" t="n">
-        <v>435</v>
+        <v>550</v>
       </c>
       <c r="D17" t="n">
-        <v>796</v>
+        <v>837</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>959</v>
+        <v>986</v>
       </c>
       <c r="G17" t="n">
-        <v>341</v>
+        <v>430</v>
       </c>
       <c r="H17" t="n">
-        <v>618</v>
+        <v>556</v>
       </c>
       <c r="I17" t="n">
         <v>1000</v>
       </c>
       <c r="J17" t="n">
-        <v>1325</v>
+        <v>2192</v>
       </c>
       <c r="K17" t="n">
-        <v>414</v>
+        <v>471</v>
       </c>
       <c r="L17" t="n">
-        <v>911</v>
+        <v>1721</v>
       </c>
       <c r="M17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1421</v>
+        <v>1633</v>
       </c>
       <c r="O17" t="n">
-        <v>462</v>
+        <v>520</v>
       </c>
       <c r="P17" t="n">
-        <v>959</v>
+        <v>1113</v>
       </c>
       <c r="Q17" t="n">
         <v>1000</v>
@@ -1546,49 +1563,49 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>796</v>
+        <v>837</v>
       </c>
       <c r="C18" t="n">
-        <v>386</v>
+        <v>416</v>
       </c>
       <c r="D18" t="n">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="E18" t="n">
         <v>1000</v>
       </c>
       <c r="F18" t="n">
-        <v>1618</v>
+        <v>1556</v>
       </c>
       <c r="G18" t="n">
-        <v>428</v>
+        <v>452</v>
       </c>
       <c r="H18" t="n">
-        <v>1190</v>
+        <v>1104</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>1911</v>
+        <v>1721</v>
       </c>
       <c r="K18" t="n">
-        <v>489</v>
+        <v>387</v>
       </c>
       <c r="L18" t="n">
-        <v>1422</v>
+        <v>1334</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1959</v>
+        <v>2113</v>
       </c>
       <c r="O18" t="n">
-        <v>548</v>
+        <v>512</v>
       </c>
       <c r="P18" t="n">
-        <v>1411</v>
+        <v>1601</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -1599,49 +1616,49 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>1410</v>
+        <v>1421</v>
       </c>
       <c r="C19" t="n">
-        <v>463</v>
+        <v>348</v>
       </c>
       <c r="D19" t="n">
-        <v>947</v>
+        <v>1073</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1190</v>
+        <v>1104</v>
       </c>
       <c r="G19" t="n">
-        <v>348</v>
+        <v>528</v>
       </c>
       <c r="H19" t="n">
-        <v>842</v>
+        <v>576</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J19" t="n">
-        <v>1422</v>
+        <v>1334</v>
       </c>
       <c r="K19" t="n">
-        <v>513</v>
+        <v>427</v>
       </c>
       <c r="L19" t="n">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="M19" t="n">
         <v>1000</v>
       </c>
       <c r="N19" t="n">
-        <v>1411</v>
+        <v>1601</v>
       </c>
       <c r="O19" t="n">
-        <v>516</v>
+        <v>433</v>
       </c>
       <c r="P19" t="n">
-        <v>895</v>
+        <v>1168</v>
       </c>
       <c r="Q19" t="n">
         <v>1000</v>
@@ -1652,49 +1669,49 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>947</v>
+        <v>1073</v>
       </c>
       <c r="C20" t="n">
-        <v>428</v>
+        <v>442</v>
       </c>
       <c r="D20" t="n">
-        <v>519</v>
+        <v>631</v>
       </c>
       <c r="E20" t="n">
         <v>1000</v>
       </c>
       <c r="F20" t="n">
-        <v>842</v>
+        <v>1576</v>
       </c>
       <c r="G20" t="n">
-        <v>349</v>
+        <v>467</v>
       </c>
       <c r="H20" t="n">
-        <v>493</v>
+        <v>1109</v>
       </c>
       <c r="I20" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1909</v>
+        <v>1907</v>
       </c>
       <c r="K20" t="n">
-        <v>424</v>
+        <v>461</v>
       </c>
       <c r="L20" t="n">
-        <v>1485</v>
+        <v>1446</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1895</v>
+        <v>2168</v>
       </c>
       <c r="O20" t="n">
-        <v>417</v>
+        <v>518</v>
       </c>
       <c r="P20" t="n">
-        <v>1478</v>
+        <v>1650</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -1705,49 +1722,49 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>1519</v>
+        <v>1631</v>
       </c>
       <c r="C21" t="n">
-        <v>544</v>
+        <v>480</v>
       </c>
       <c r="D21" t="n">
-        <v>975</v>
+        <v>1151</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1493</v>
+        <v>1109</v>
       </c>
       <c r="G21" t="n">
-        <v>410</v>
+        <v>369</v>
       </c>
       <c r="H21" t="n">
-        <v>1083</v>
+        <v>740</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J21" t="n">
-        <v>1485</v>
+        <v>1446</v>
       </c>
       <c r="K21" t="n">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="L21" t="n">
-        <v>1111</v>
+        <v>1056</v>
       </c>
       <c r="M21" t="n">
         <v>1000</v>
       </c>
       <c r="N21" t="n">
-        <v>1478</v>
+        <v>1650</v>
       </c>
       <c r="O21" t="n">
-        <v>419</v>
+        <v>380</v>
       </c>
       <c r="P21" t="n">
-        <v>1059</v>
+        <v>1270</v>
       </c>
       <c r="Q21" t="n">
         <v>1000</v>
@@ -1758,49 +1775,49 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>975</v>
+        <v>1151</v>
       </c>
       <c r="C22" t="n">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="D22" t="n">
-        <v>621</v>
+        <v>783</v>
       </c>
       <c r="E22" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1083</v>
+        <v>1740</v>
       </c>
       <c r="G22" t="n">
-        <v>440</v>
+        <v>385</v>
       </c>
       <c r="H22" t="n">
-        <v>643</v>
+        <v>1355</v>
       </c>
       <c r="I22" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>2111</v>
+        <v>2056</v>
       </c>
       <c r="K22" t="n">
-        <v>474</v>
+        <v>518</v>
       </c>
       <c r="L22" t="n">
-        <v>1637</v>
+        <v>1538</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>2059</v>
+        <v>2270</v>
       </c>
       <c r="O22" t="n">
-        <v>505</v>
+        <v>524</v>
       </c>
       <c r="P22" t="n">
-        <v>1554</v>
+        <v>1746</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -1811,49 +1828,49 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>1621</v>
+        <v>783</v>
       </c>
       <c r="C23" t="n">
-        <v>410</v>
+        <v>558</v>
       </c>
       <c r="D23" t="n">
-        <v>1211</v>
+        <v>225</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F23" t="n">
-        <v>1643</v>
+        <v>1355</v>
       </c>
       <c r="G23" t="n">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="H23" t="n">
-        <v>1173</v>
+        <v>882</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>1637</v>
+        <v>1538</v>
       </c>
       <c r="K23" t="n">
-        <v>481</v>
+        <v>437</v>
       </c>
       <c r="L23" t="n">
-        <v>1156</v>
+        <v>1101</v>
       </c>
       <c r="M23" t="n">
         <v>1000</v>
       </c>
       <c r="N23" t="n">
-        <v>1554</v>
+        <v>1746</v>
       </c>
       <c r="O23" t="n">
-        <v>436</v>
+        <v>505</v>
       </c>
       <c r="P23" t="n">
-        <v>1118</v>
+        <v>1241</v>
       </c>
       <c r="Q23" t="n">
         <v>1000</v>
@@ -1864,49 +1881,49 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>1211</v>
+        <v>1225</v>
       </c>
       <c r="C24" t="n">
-        <v>375</v>
+        <v>512</v>
       </c>
       <c r="D24" t="n">
-        <v>836</v>
+        <v>713</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>1173</v>
+        <v>882</v>
       </c>
       <c r="G24" t="n">
-        <v>557</v>
+        <v>489</v>
       </c>
       <c r="H24" t="n">
-        <v>616</v>
+        <v>393</v>
       </c>
       <c r="I24" t="n">
         <v>1000</v>
       </c>
       <c r="J24" t="n">
-        <v>2156</v>
+        <v>2101</v>
       </c>
       <c r="K24" t="n">
-        <v>438</v>
+        <v>380</v>
       </c>
       <c r="L24" t="n">
-        <v>1718</v>
+        <v>1721</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>2118</v>
+        <v>2241</v>
       </c>
       <c r="O24" t="n">
-        <v>445</v>
+        <v>386</v>
       </c>
       <c r="P24" t="n">
-        <v>1673</v>
+        <v>1855</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -1917,49 +1934,49 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>836</v>
+        <v>713</v>
       </c>
       <c r="C25" t="n">
-        <v>536</v>
+        <v>488</v>
       </c>
       <c r="D25" t="n">
-        <v>300</v>
+        <v>225</v>
       </c>
       <c r="E25" t="n">
         <v>1000</v>
       </c>
       <c r="F25" t="n">
-        <v>1616</v>
+        <v>1393</v>
       </c>
       <c r="G25" t="n">
-        <v>549</v>
+        <v>513</v>
       </c>
       <c r="H25" t="n">
-        <v>1067</v>
+        <v>880</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1718</v>
+        <v>1721</v>
       </c>
       <c r="K25" t="n">
-        <v>504</v>
+        <v>431</v>
       </c>
       <c r="L25" t="n">
-        <v>1214</v>
+        <v>1290</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>1673</v>
+        <v>1855</v>
       </c>
       <c r="O25" t="n">
-        <v>453</v>
+        <v>556</v>
       </c>
       <c r="P25" t="n">
-        <v>1220</v>
+        <v>1299</v>
       </c>
       <c r="Q25" t="n">
         <v>1000</v>
@@ -1970,49 +1987,49 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>1300</v>
+        <v>1225</v>
       </c>
       <c r="C26" t="n">
-        <v>518</v>
+        <v>410</v>
       </c>
       <c r="D26" t="n">
-        <v>782</v>
+        <v>815</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1067</v>
+        <v>880</v>
       </c>
       <c r="G26" t="n">
-        <v>444</v>
+        <v>486</v>
       </c>
       <c r="H26" t="n">
-        <v>623</v>
+        <v>394</v>
       </c>
       <c r="I26" t="n">
         <v>1000</v>
       </c>
       <c r="J26" t="n">
-        <v>1214</v>
+        <v>1290</v>
       </c>
       <c r="K26" t="n">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="L26" t="n">
-        <v>787</v>
+        <v>865</v>
       </c>
       <c r="M26" t="n">
         <v>1000</v>
       </c>
       <c r="N26" t="n">
-        <v>2220</v>
+        <v>2299</v>
       </c>
       <c r="O26" t="n">
-        <v>350</v>
+        <v>378</v>
       </c>
       <c r="P26" t="n">
-        <v>1870</v>
+        <v>1921</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -2023,49 +2040,49 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>782</v>
+        <v>815</v>
       </c>
       <c r="C27" t="n">
-        <v>408</v>
+        <v>386</v>
       </c>
       <c r="D27" t="n">
+        <v>429</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1394</v>
+      </c>
+      <c r="G27" t="n">
+        <v>350</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1044</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1865</v>
+      </c>
+      <c r="K27" t="n">
+        <v>392</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1473</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1921</v>
+      </c>
+      <c r="O27" t="n">
         <v>374</v>
       </c>
-      <c r="E27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F27" t="n">
-        <v>1623</v>
-      </c>
-      <c r="G27" t="n">
-        <v>428</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1195</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1787</v>
-      </c>
-      <c r="K27" t="n">
-        <v>394</v>
-      </c>
-      <c r="L27" t="n">
-        <v>1393</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>1870</v>
-      </c>
-      <c r="O27" t="n">
-        <v>457</v>
-      </c>
       <c r="P27" t="n">
-        <v>1413</v>
+        <v>1547</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -2076,49 +2093,49 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>1374</v>
+        <v>1429</v>
       </c>
       <c r="C28" t="n">
-        <v>511</v>
+        <v>369</v>
       </c>
       <c r="D28" t="n">
-        <v>863</v>
+        <v>1060</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>1195</v>
+        <v>1044</v>
       </c>
       <c r="G28" t="n">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="H28" t="n">
-        <v>784</v>
+        <v>621</v>
       </c>
       <c r="I28" t="n">
         <v>1000</v>
       </c>
       <c r="J28" t="n">
-        <v>1393</v>
+        <v>1473</v>
       </c>
       <c r="K28" t="n">
-        <v>460</v>
+        <v>347</v>
       </c>
       <c r="L28" t="n">
-        <v>933</v>
+        <v>1126</v>
       </c>
       <c r="M28" t="n">
         <v>1000</v>
       </c>
       <c r="N28" t="n">
-        <v>1413</v>
+        <v>1547</v>
       </c>
       <c r="O28" t="n">
-        <v>522</v>
+        <v>506</v>
       </c>
       <c r="P28" t="n">
-        <v>891</v>
+        <v>1041</v>
       </c>
       <c r="Q28" t="n">
         <v>1000</v>
@@ -2129,49 +2146,49 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>863</v>
+        <v>1060</v>
       </c>
       <c r="C29" t="n">
-        <v>387</v>
+        <v>557</v>
       </c>
       <c r="D29" t="n">
-        <v>476</v>
+        <v>503</v>
       </c>
       <c r="E29" t="n">
         <v>1000</v>
       </c>
       <c r="F29" t="n">
-        <v>1784</v>
+        <v>1621</v>
       </c>
       <c r="G29" t="n">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="H29" t="n">
-        <v>1428</v>
+        <v>1280</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1933</v>
+        <v>2126</v>
       </c>
       <c r="K29" t="n">
-        <v>384</v>
+        <v>551</v>
       </c>
       <c r="L29" t="n">
-        <v>1549</v>
+        <v>1575</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1891</v>
+        <v>2041</v>
       </c>
       <c r="O29" t="n">
-        <v>436</v>
+        <v>555</v>
       </c>
       <c r="P29" t="n">
-        <v>1455</v>
+        <v>1486</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -2182,49 +2199,49 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>1476</v>
+        <v>1503</v>
       </c>
       <c r="C30" t="n">
-        <v>404</v>
+        <v>530</v>
       </c>
       <c r="D30" t="n">
-        <v>1072</v>
+        <v>973</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>1428</v>
+        <v>1280</v>
       </c>
       <c r="G30" t="n">
-        <v>514</v>
+        <v>341</v>
       </c>
       <c r="H30" t="n">
-        <v>914</v>
+        <v>939</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>1549</v>
+        <v>1575</v>
       </c>
       <c r="K30" t="n">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="L30" t="n">
-        <v>1035</v>
+        <v>1055</v>
       </c>
       <c r="M30" t="n">
         <v>1000</v>
       </c>
       <c r="N30" t="n">
-        <v>1455</v>
+        <v>1486</v>
       </c>
       <c r="O30" t="n">
-        <v>504</v>
+        <v>517</v>
       </c>
       <c r="P30" t="n">
-        <v>951</v>
+        <v>969</v>
       </c>
       <c r="Q30" t="n">
         <v>1000</v>
@@ -2235,10 +2252,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>1072</v>
+        <v>973</v>
       </c>
       <c r="C31" t="n">
-        <v>542</v>
+        <v>443</v>
       </c>
       <c r="D31" t="n">
         <v>530</v>
@@ -2247,10 +2264,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>914</v>
+        <v>939</v>
       </c>
       <c r="G31" t="n">
-        <v>384</v>
+        <v>409</v>
       </c>
       <c r="H31" t="n">
         <v>530</v>
@@ -2259,10 +2276,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>2035</v>
+        <v>2055</v>
       </c>
       <c r="K31" t="n">
-        <v>505</v>
+        <v>525</v>
       </c>
       <c r="L31" t="n">
         <v>1530</v>
@@ -2271,10 +2288,10 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>1951</v>
+        <v>1969</v>
       </c>
       <c r="O31" t="n">
-        <v>421</v>
+        <v>439</v>
       </c>
       <c r="P31" t="n">
         <v>1530</v>

--- a/Order.xlsx
+++ b/Order.xlsx
@@ -507,13 +507,13 @@
         <v>668</v>
       </c>
       <c r="G2" t="n">
-        <v>1259</v>
+        <v>1182</v>
       </c>
       <c r="H2" t="n">
         <v>13</v>
       </c>
       <c r="I2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -542,13 +542,13 @@
         <v>795</v>
       </c>
       <c r="G3" t="n">
-        <v>1320</v>
+        <v>1358</v>
       </c>
       <c r="H3" t="n">
         <v>13</v>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -583,7 +583,7 @@
         <v>9</v>
       </c>
       <c r="I4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5">
@@ -618,7 +618,7 @@
         <v>9</v>
       </c>
       <c r="I5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -780,18 +780,18 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>445</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>555</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>555</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -806,18 +806,18 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>445</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>555</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>555</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -832,18 +832,18 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>445</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>555</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>555</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -858,18 +858,18 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>445</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>555</t>
         </is>
       </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>555</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -886,27 +886,23 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>555</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>542</t>
+          <t>380</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-102</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>898</t>
+          <t>1175</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -916,27 +912,23 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>555</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>542</t>
+          <t>380</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>-102</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>898</t>
+          <t>1175</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -946,27 +938,23 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>555</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>542</t>
+          <t>380</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>-102</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
         <is>
-          <t>-102</t>
+          <t>175</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -976,27 +964,23 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>555</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>542</t>
+          <t>380</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>-102</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr">
         <is>
-          <t>-102</t>
+          <t>175</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
@@ -1013,49 +997,49 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>898</t>
+          <t>1175</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>496</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>679</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>679</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>898</t>
+          <t>1175</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>496</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>679</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>679</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -1065,17 +1049,17 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>-102</t>
+          <t>175</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>496</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>-453</t>
+          <t>-321</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -1085,7 +1069,7 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>679</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -1095,17 +1079,17 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>-102</t>
+          <t>175</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>496</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>-453</t>
+          <t>-321</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
@@ -1115,7 +1099,7 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>679</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
@@ -1132,49 +1116,49 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>679</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>514</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>165</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1160</t>
+          <t>165</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>679</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>514</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>165</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>1160</t>
+          <t>1165</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -1184,23 +1168,23 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>679</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>514</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>165</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>165</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -1210,23 +1194,23 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>679</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>514</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>165</t>
         </is>
       </c>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>165</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
@@ -1243,23 +1227,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1160</t>
+          <t>165</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>475</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>804</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
+          <t>-310</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>804</t>
+          <t>690</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -1269,43 +1257,43 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1160</t>
+          <t>1165</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>475</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>804</t>
+          <t>690</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>804</t>
+          <t>690</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>165</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>475</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>-196</t>
+          <t>-310</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -1315,7 +1303,7 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>-196</t>
+          <t>-310</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
@@ -1325,17 +1313,17 @@
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>165</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>475</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>-196</t>
+          <t>-310</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
@@ -1345,7 +1333,7 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>-196</t>
+          <t>-310</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
@@ -1362,23 +1350,23 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>804</t>
+          <t>690</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>423</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>267</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>267</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1388,43 +1376,43 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>804</t>
+          <t>690</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>423</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>267</t>
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>1267</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>-196</t>
+          <t>-310</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>423</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>-636</t>
+          <t>-733</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -1434,7 +1422,7 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>267</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -1444,17 +1432,17 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>-196</t>
+          <t>-310</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>423</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>-636</t>
+          <t>-733</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
@@ -1464,7 +1452,7 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>267</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
@@ -1481,17 +1469,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>267</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>407</t>
+          <t>384</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-43</t>
+          <t>-117</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1501,7 +1489,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>957</t>
+          <t>883</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1511,27 +1499,23 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>1267</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>407</t>
+          <t>384</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>-43</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+          <t>883</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>957</t>
+          <t>883</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -1541,17 +1525,17 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>267</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>407</t>
+          <t>384</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>-43</t>
+          <t>-117</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
@@ -1561,7 +1545,7 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>-43</t>
+          <t>-117</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
@@ -1571,17 +1555,17 @@
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>267</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>407</t>
+          <t>384</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>-43</t>
+          <t>-117</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
@@ -1591,7 +1575,7 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>-43</t>
+          <t>-117</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
@@ -1608,23 +1592,23 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>957</t>
+          <t>883</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>531</t>
+          <t>465</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>426</t>
+          <t>418</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>426</t>
+          <t>418</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1634,23 +1618,23 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>957</t>
+          <t>883</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>531</t>
+          <t>465</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>426</t>
+          <t>418</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>426</t>
+          <t>418</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1660,17 +1644,17 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>-43</t>
+          <t>-117</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>531</t>
+          <t>465</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>-574</t>
+          <t>-582</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -1680,7 +1664,7 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>-574</t>
+          <t>-582</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
@@ -1690,17 +1674,17 @@
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>-43</t>
+          <t>-117</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>531</t>
+          <t>465</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>-574</t>
+          <t>-582</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
@@ -1710,7 +1694,7 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>-574</t>
+          <t>-582</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
@@ -1727,27 +1711,23 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>426</t>
+          <t>418</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>491</t>
+          <t>392</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-65</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>935</t>
+          <t>1026</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1757,27 +1737,23 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>426</t>
+          <t>418</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>491</t>
+          <t>392</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>-65</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>935</t>
+          <t>1026</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1787,17 +1763,17 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>-574</t>
+          <t>-582</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>491</t>
+          <t>392</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>-1065</t>
+          <t>-974</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
@@ -1807,7 +1783,7 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>-65</t>
+          <t>26</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
@@ -1817,17 +1793,17 @@
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>-574</t>
+          <t>-582</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>491</t>
+          <t>392</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>-1065</t>
+          <t>-974</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
@@ -1837,7 +1813,7 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>-65</t>
+          <t>26</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
@@ -1854,23 +1830,23 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>935</t>
+          <t>1026</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>506</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>574</t>
+          <t>520</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>574</t>
+          <t>520</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1880,23 +1856,23 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>935</t>
+          <t>1026</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>506</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>574</t>
+          <t>520</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>574</t>
+          <t>520</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1906,17 +1882,17 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>-65</t>
+          <t>26</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>506</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>-426</t>
+          <t>-480</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -1926,7 +1902,7 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>-426</t>
+          <t>-480</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
@@ -1936,17 +1912,17 @@
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>-65</t>
+          <t>26</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>506</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>-426</t>
+          <t>-480</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
@@ -1956,7 +1932,7 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>-426</t>
+          <t>-480</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
@@ -1973,23 +1949,23 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>574</t>
+          <t>520</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>469</t>
+          <t>453</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>67</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1105</t>
+          <t>1067</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1999,23 +1975,23 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>574</t>
+          <t>520</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>469</t>
+          <t>453</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>67</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>1105</t>
+          <t>1067</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -2025,17 +2001,17 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>-426</t>
+          <t>-480</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>469</t>
+          <t>453</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>-895</t>
+          <t>-933</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
@@ -2045,7 +2021,7 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>-895</t>
+          <t>-933</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
@@ -2055,17 +2031,17 @@
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>-426</t>
+          <t>-480</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>469</t>
+          <t>453</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>-895</t>
+          <t>-933</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
@@ -2075,7 +2051,7 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>-895</t>
+          <t>-933</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
@@ -2092,23 +2068,23 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1105</t>
+          <t>1067</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>551</t>
+          <t>517</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>554</t>
+          <t>550</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>554</t>
+          <t>550</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -2118,23 +2094,23 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>1105</t>
+          <t>1067</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>551</t>
+          <t>517</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>554</t>
+          <t>550</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>554</t>
+          <t>550</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -2144,17 +2120,17 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>-895</t>
+          <t>-933</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>551</t>
+          <t>517</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>-1446</t>
+          <t>-1450</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
@@ -2164,7 +2140,7 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>-446</t>
+          <t>-450</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
@@ -2174,17 +2150,17 @@
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>-895</t>
+          <t>-933</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>551</t>
+          <t>517</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>-1446</t>
+          <t>-1450</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
@@ -2194,7 +2170,7 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>-446</t>
+          <t>-450</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
@@ -2211,23 +2187,23 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>554</t>
+          <t>550</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>505</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1029</t>
+          <t>1045</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -2237,23 +2213,23 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>554</t>
+          <t>550</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>505</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>45</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>1029</t>
+          <t>1045</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -2263,17 +2239,17 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>-446</t>
+          <t>-450</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>505</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>-971</t>
+          <t>-955</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
@@ -2283,7 +2259,7 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>-971</t>
+          <t>-955</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
@@ -2293,17 +2269,17 @@
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>-446</t>
+          <t>-450</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>505</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>-971</t>
+          <t>-955</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
@@ -2313,7 +2289,7 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>-971</t>
+          <t>-955</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
@@ -2330,23 +2306,23 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1029</t>
+          <t>1045</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>471</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>632</t>
+          <t>574</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>632</t>
+          <t>574</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -2356,23 +2332,23 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>1029</t>
+          <t>1045</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>471</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>632</t>
+          <t>574</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>632</t>
+          <t>574</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -2382,17 +2358,17 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>-971</t>
+          <t>-955</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>471</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>-1368</t>
+          <t>-1426</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
@@ -2402,7 +2378,7 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>-1368</t>
+          <t>-1426</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
@@ -2412,17 +2388,17 @@
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>-971</t>
+          <t>-955</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>471</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>-1368</t>
+          <t>-1426</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
@@ -2432,7 +2408,7 @@
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>-1368</t>
+          <t>-1426</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
@@ -2449,23 +2425,23 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>632</t>
+          <t>574</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>441</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>133</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1259</t>
+          <t>1133</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -2475,23 +2451,23 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>632</t>
+          <t>574</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>441</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>133</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>1259</t>
+          <t>1133</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -2501,17 +2477,17 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>-1368</t>
+          <t>-1426</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>441</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>-1741</t>
+          <t>-1867</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
@@ -2521,7 +2497,7 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>-741</t>
+          <t>-867</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
@@ -2531,17 +2507,17 @@
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>-1368</t>
+          <t>-1426</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>441</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>-1741</t>
+          <t>-1867</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
@@ -2551,7 +2527,7 @@
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>-741</t>
+          <t>-867</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
@@ -2568,23 +2544,23 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1259</t>
+          <t>1133</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>433</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>921</t>
+          <t>700</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>921</t>
+          <t>700</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -2594,43 +2570,43 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>1259</t>
+          <t>1133</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>433</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>921</t>
+          <t>700</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>921</t>
+          <t>700</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>-741</t>
+          <t>-867</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>433</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>-1079</t>
+          <t>-1300</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
@@ -2640,7 +2616,7 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>-1079</t>
+          <t>-1300</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
@@ -2650,17 +2626,17 @@
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>-741</t>
+          <t>-867</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>433</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>-1079</t>
+          <t>-1300</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
@@ -2670,7 +2646,7 @@
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>-1079</t>
+          <t>-1300</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
@@ -2687,23 +2663,23 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>921</t>
+          <t>700</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>518</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>574</t>
+          <t>182</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>574</t>
+          <t>182</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -2713,43 +2689,43 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>921</t>
+          <t>700</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>518</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>574</t>
+          <t>182</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>574</t>
+          <t>1182</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>-1079</t>
+          <t>-1300</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>518</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>-1426</t>
+          <t>-1818</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
@@ -2759,7 +2735,7 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>-1426</t>
+          <t>-1818</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
@@ -2769,17 +2745,17 @@
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>-1079</t>
+          <t>-1300</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>518</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>-1426</t>
+          <t>-1818</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
@@ -2789,7 +2765,7 @@
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>-1426</t>
+          <t>-1818</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
@@ -2806,23 +2782,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>574</t>
+          <t>182</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>429</t>
+          <t>427</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>145</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
+          <t>-245</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1145</t>
+          <t>755</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -2832,43 +2812,43 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>574</t>
+          <t>1182</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>429</t>
+          <t>427</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>755</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>1145</t>
+          <t>755</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>-1426</t>
+          <t>-1818</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>429</t>
+          <t>427</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>-1855</t>
+          <t>-2245</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
@@ -2878,7 +2858,7 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>-855</t>
+          <t>-1245</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
@@ -2888,17 +2868,17 @@
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>-1426</t>
+          <t>-1818</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>429</t>
+          <t>427</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>-1855</t>
+          <t>-2245</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
@@ -2908,7 +2888,7 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>-855</t>
+          <t>-1245</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
@@ -2925,23 +2905,23 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1145</t>
+          <t>755</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>455</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>608</t>
+          <t>300</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>608</t>
+          <t>300</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -2951,43 +2931,43 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>1145</t>
+          <t>755</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>455</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>608</t>
+          <t>300</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
-          <t>608</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>-855</t>
+          <t>-1245</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>455</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>-1392</t>
+          <t>-1700</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
@@ -2997,7 +2977,7 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>-1392</t>
+          <t>-1700</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
@@ -3007,17 +2987,17 @@
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>-855</t>
+          <t>-1245</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>455</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>-1392</t>
+          <t>-1700</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
@@ -3027,7 +3007,7 @@
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>-1392</t>
+          <t>-1700</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
@@ -3044,23 +3024,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>608</t>
+          <t>300</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>361</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>164</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
+          <t>-61</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1164</t>
+          <t>939</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -3070,23 +3054,23 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>608</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>361</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>939</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
-          <t>1164</t>
+          <t>939</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -3096,17 +3080,17 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>-1392</t>
+          <t>-1700</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>361</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>-1836</t>
+          <t>-2061</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
@@ -3116,7 +3100,7 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>-1836</t>
+          <t>-2061</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
@@ -3126,17 +3110,17 @@
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>-1392</t>
+          <t>-1700</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>361</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>-1836</t>
+          <t>-2061</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
@@ -3146,7 +3130,7 @@
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>-1836</t>
+          <t>-2061</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
@@ -3163,49 +3147,49 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1164</t>
+          <t>939</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>402</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>727</t>
+          <t>537</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>727</t>
+          <t>537</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>1164</t>
+          <t>939</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>402</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>727</t>
+          <t>537</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
-          <t>727</t>
+          <t>537</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -3215,17 +3199,17 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>-1836</t>
+          <t>-2061</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>402</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>-2273</t>
+          <t>-2463</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
@@ -3235,7 +3219,7 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>-1273</t>
+          <t>-1463</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
@@ -3245,17 +3229,17 @@
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>-1836</t>
+          <t>-2061</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>402</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>-2273</t>
+          <t>-2463</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
@@ -3265,7 +3249,7 @@
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>-1273</t>
+          <t>-1463</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
@@ -3282,49 +3266,49 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>727</t>
+          <t>537</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>407</t>
+          <t>457</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>80</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>1080</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>727</t>
+          <t>537</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>407</t>
+          <t>457</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>80</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
-          <t>1320</t>
+          <t>1080</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -3334,17 +3318,17 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>-1273</t>
+          <t>-1463</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>407</t>
+          <t>457</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>-1680</t>
+          <t>-1920</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
@@ -3354,7 +3338,7 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>-1680</t>
+          <t>-1920</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
@@ -3364,17 +3348,17 @@
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>-1273</t>
+          <t>-1463</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>407</t>
+          <t>457</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>-1680</t>
+          <t>-1920</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
@@ -3384,7 +3368,7 @@
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>-1680</t>
+          <t>-1920</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
@@ -3401,73 +3385,69 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>1080</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>458</t>
+          <t>542</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>-138</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+          <t>538</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>862</t>
+          <t>538</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>1320</t>
+          <t>1080</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>458</t>
+          <t>542</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>862</t>
+          <t>538</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
-          <t>862</t>
+          <t>538</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>-1680</t>
+          <t>-1920</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>458</t>
+          <t>542</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>-2138</t>
+          <t>-2462</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
@@ -3477,7 +3457,7 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>-2138</t>
+          <t>-2462</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
@@ -3487,17 +3467,17 @@
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>-1680</t>
+          <t>-1920</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>458</t>
+          <t>542</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>-2138</t>
+          <t>-2462</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
@@ -3507,7 +3487,7 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>-2138</t>
+          <t>-2462</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
@@ -3524,69 +3504,69 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>862</t>
+          <t>538</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>356</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>182</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>1182</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>862</t>
+          <t>538</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>356</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>182</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>1182</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>-2138</t>
+          <t>-2462</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>356</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>-2505</t>
+          <t>-2818</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
@@ -3596,7 +3576,7 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>-1505</t>
+          <t>-1818</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
@@ -3606,17 +3586,17 @@
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>-2138</t>
+          <t>-2462</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>356</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>-2505</t>
+          <t>-2818</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
@@ -3626,7 +3606,7 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>-1505</t>
+          <t>-1818</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
@@ -3643,23 +3623,23 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>1182</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>491</t>
+          <t>443</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>739</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>1004</t>
+          <t>739</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -3669,43 +3649,43 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>1182</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>491</t>
+          <t>443</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>739</t>
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
-          <t>1004</t>
+          <t>739</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>-1505</t>
+          <t>-1818</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>491</t>
+          <t>443</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>-1996</t>
+          <t>-2261</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
@@ -3715,7 +3695,7 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>-1996</t>
+          <t>-2261</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
@@ -3725,17 +3705,17 @@
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>-1505</t>
+          <t>-1818</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>491</t>
+          <t>443</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>-1996</t>
+          <t>-2261</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
@@ -3745,7 +3725,7 @@
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>-1996</t>
+          <t>-2261</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
@@ -3762,23 +3742,23 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1004</t>
+          <t>739</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>381</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>358</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>358</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -3788,43 +3768,43 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>1004</t>
+          <t>739</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>381</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>358</t>
         </is>
       </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>1358</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>-1996</t>
+          <t>-2261</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>381</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>-2450</t>
+          <t>-2642</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
@@ -3834,7 +3814,7 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>-2450</t>
+          <t>-2642</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
@@ -3844,17 +3824,17 @@
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>-1996</t>
+          <t>-2261</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>381</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>-2450</t>
+          <t>-2642</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
@@ -3864,7 +3844,7 @@
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>-2450</t>
+          <t>-2642</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
@@ -3881,23 +3861,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>358</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>437</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr"/>
+          <t>-79</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>1003</t>
+          <t>921</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -3907,23 +3891,23 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>1358</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>437</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>921</t>
         </is>
       </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
-          <t>1003</t>
+          <t>921</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -3933,17 +3917,17 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>-2450</t>
+          <t>-2642</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>437</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>-2997</t>
+          <t>-3079</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
@@ -3953,7 +3937,7 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>-1997</t>
+          <t>-2079</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
@@ -3963,17 +3947,17 @@
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>-2450</t>
+          <t>-2642</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>437</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>-2997</t>
+          <t>-3079</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
@@ -3983,7 +3967,7 @@
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>-1997</t>
+          <t>-2079</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
@@ -4000,23 +3984,23 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1003</t>
+          <t>921</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>501</t>
+          <t>537</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>384</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>384</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -4026,23 +4010,23 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>1003</t>
+          <t>921</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>501</t>
+          <t>537</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>384</t>
         </is>
       </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>384</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -4052,17 +4036,17 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>-1997</t>
+          <t>-2079</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>501</t>
+          <t>537</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>-2498</t>
+          <t>-2616</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
@@ -4072,7 +4056,7 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>-2498</t>
+          <t>-2616</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
@@ -4082,17 +4066,17 @@
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>-1997</t>
+          <t>-2079</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>501</t>
+          <t>537</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>-2498</t>
+          <t>-2616</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
@@ -4102,7 +4086,7 @@
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>-2498</t>
+          <t>-2616</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
@@ -4119,7 +4103,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>384</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -4129,13 +4113,17 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr"/>
+          <t>-77</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>1041</t>
+          <t>923</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -4145,7 +4133,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>384</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -4155,13 +4143,17 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr"/>
+          <t>-77</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>1041</t>
+          <t>923</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -4171,7 +4163,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>-2498</t>
+          <t>-2616</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -4181,7 +4173,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>-2959</t>
+          <t>-3077</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
@@ -4191,7 +4183,7 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>-2959</t>
+          <t>-3077</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
@@ -4201,7 +4193,7 @@
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>-2498</t>
+          <t>-2616</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
@@ -4211,7 +4203,7 @@
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>-2959</t>
+          <t>-3077</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
@@ -4221,7 +4213,7 @@
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>-2959</t>
+          <t>-3077</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
@@ -4238,12 +4230,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1041</t>
+          <t>923</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>393</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -4264,12 +4256,12 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>1041</t>
+          <t>923</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>393</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -4290,12 +4282,12 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>-2959</t>
+          <t>-3077</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>393</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -4320,12 +4312,12 @@
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>-2959</t>
+          <t>-3077</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>393</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">

--- a/Order.xlsx
+++ b/Order.xlsx
@@ -507,13 +507,13 @@
         <v>668</v>
       </c>
       <c r="G2" t="n">
-        <v>1182</v>
+        <v>1169</v>
       </c>
       <c r="H2" t="n">
         <v>13</v>
       </c>
       <c r="I2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -542,13 +542,13 @@
         <v>795</v>
       </c>
       <c r="G3" t="n">
-        <v>1358</v>
+        <v>1295</v>
       </c>
       <c r="H3" t="n">
         <v>13</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -648,122 +648,122 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Initial stock_x</t>
+          <t>Initial stock 1</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Demand_x</t>
+          <t>Demand 1</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Final Stock_x</t>
+          <t>Final Stock 1</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Stock outs_x</t>
+          <t>Stock outs 1</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Final Stock After Replenishment_x</t>
+          <t>Final Stock After Replenishment 1</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Order size_x</t>
+          <t>Order size 1</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Initial stock_y</t>
+          <t>Initial stock 2</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Demand_y</t>
+          <t>Demand 2</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Final Stock_y</t>
+          <t>Final Stock 2</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Stock outs_y</t>
+          <t>Stock outs 2</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Final Stock After Replenishment_y</t>
+          <t>Final Stock After Replenishment 2</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Order size_y</t>
+          <t>Order size 2</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Initial stock_x</t>
+          <t>Initial stock 3</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Demand_x</t>
+          <t>Demand 3</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Final Stock_x</t>
+          <t>Final Stock 3</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Stock outs_x</t>
+          <t>Stock outs 3</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Final Stock After Replenishment_x</t>
+          <t>Final Stock After Replenishment 3</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Order size_x</t>
+          <t>Order size 3</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Initial stock_y</t>
+          <t>Initial stock 4</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Demand_y</t>
+          <t>Demand 4</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Final Stock_y</t>
+          <t>Final Stock 4</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Stock outs_y</t>
+          <t>Stock outs 4</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>Final Stock After Replenishment_y</t>
+          <t>Final Stock After Replenishment 4</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>Order size_y</t>
+          <t>Order size 4</t>
         </is>
       </c>
     </row>
@@ -780,18 +780,18 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>375</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>625</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>625</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -806,18 +806,18 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>375</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>625</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>625</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -832,18 +832,18 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>375</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>625</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>625</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -858,18 +858,18 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>375</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>625</t>
         </is>
       </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>625</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -886,23 +886,23 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>625</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>456</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>169</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1175</t>
+          <t>1169</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -912,23 +912,23 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>625</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>456</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>169</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>1175</t>
+          <t>1169</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -938,23 +938,23 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>625</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>456</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>169</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>169</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -964,23 +964,23 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>625</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>456</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>169</t>
         </is>
       </c>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>169</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
@@ -997,23 +997,23 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1175</t>
+          <t>1169</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>496</t>
+          <t>434</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>679</t>
+          <t>735</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>679</t>
+          <t>735</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -1023,23 +1023,23 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1175</t>
+          <t>1169</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>496</t>
+          <t>434</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>679</t>
+          <t>735</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>679</t>
+          <t>735</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -1049,17 +1049,17 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>169</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>496</t>
+          <t>434</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>-321</t>
+          <t>-265</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>679</t>
+          <t>735</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -1079,17 +1079,17 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>169</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>496</t>
+          <t>434</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>-321</t>
+          <t>-265</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
@@ -1099,7 +1099,7 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>679</t>
+          <t>735</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
@@ -1116,23 +1116,23 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>679</t>
+          <t>735</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>514</t>
+          <t>485</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>250</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>250</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -1142,23 +1142,23 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>679</t>
+          <t>735</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>514</t>
+          <t>485</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>250</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>1165</t>
+          <t>1250</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -1168,23 +1168,23 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>679</t>
+          <t>735</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>514</t>
+          <t>485</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>250</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>250</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -1194,23 +1194,23 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>679</t>
+          <t>735</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>514</t>
+          <t>485</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>250</t>
         </is>
       </c>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>250</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
@@ -1227,17 +1227,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>250</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>475</t>
+          <t>489</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-310</t>
+          <t>-239</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1247,7 +1247,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>690</t>
+          <t>761</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -1257,23 +1257,23 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1165</t>
+          <t>1250</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>475</t>
+          <t>489</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>690</t>
+          <t>761</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>690</t>
+          <t>761</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -1283,17 +1283,17 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>250</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>475</t>
+          <t>489</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>-310</t>
+          <t>-239</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>-310</t>
+          <t>-239</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
@@ -1313,17 +1313,17 @@
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>250</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>475</t>
+          <t>489</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>-310</t>
+          <t>-239</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>-310</t>
+          <t>-239</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
@@ -1350,23 +1350,23 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>690</t>
+          <t>761</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>492</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>269</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>269</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1376,23 +1376,23 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>690</t>
+          <t>761</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>492</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>269</t>
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>1267</t>
+          <t>1269</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -1402,17 +1402,17 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>-310</t>
+          <t>-239</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>492</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>-733</t>
+          <t>-731</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -1422,7 +1422,7 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>269</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -1432,17 +1432,17 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>-310</t>
+          <t>-239</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>492</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>-733</t>
+          <t>-731</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>269</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
@@ -1469,17 +1469,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>269</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>540</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-117</t>
+          <t>-271</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1489,7 +1489,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>883</t>
+          <t>729</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1499,43 +1499,43 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>1267</t>
+          <t>1269</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>540</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>883</t>
+          <t>729</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>883</t>
+          <t>729</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>269</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>540</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>-117</t>
+          <t>-271</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
@@ -1545,7 +1545,7 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>-117</t>
+          <t>-271</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
@@ -1555,17 +1555,17 @@
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>269</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>540</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>-117</t>
+          <t>-271</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
@@ -1575,7 +1575,7 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>-117</t>
+          <t>-271</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
@@ -1592,23 +1592,23 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>883</t>
+          <t>729</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>509</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>220</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>220</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1618,43 +1618,43 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>883</t>
+          <t>729</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>509</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>220</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>1220</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>-117</t>
+          <t>-271</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>509</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>-582</t>
+          <t>-780</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -1664,7 +1664,7 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>-582</t>
+          <t>-780</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
@@ -1674,17 +1674,17 @@
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>-117</t>
+          <t>-271</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>509</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>-582</t>
+          <t>-780</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
@@ -1694,7 +1694,7 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>-582</t>
+          <t>-780</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
@@ -1711,23 +1711,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>220</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>420</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
+          <t>-200</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1026</t>
+          <t>800</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1737,23 +1741,23 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>1220</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>420</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>800</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>1026</t>
+          <t>800</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1763,17 +1767,17 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>-582</t>
+          <t>-780</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>420</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>-974</t>
+          <t>-1200</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
@@ -1783,7 +1787,7 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>-200</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
@@ -1793,17 +1797,17 @@
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>-582</t>
+          <t>-780</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>420</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>-974</t>
+          <t>-1200</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
@@ -1813,7 +1817,7 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>-200</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
@@ -1830,23 +1834,23 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1026</t>
+          <t>800</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>506</t>
+          <t>358</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>442</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>442</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1856,23 +1860,23 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>1026</t>
+          <t>800</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>506</t>
+          <t>358</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>442</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>442</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1882,17 +1886,17 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>-200</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>506</t>
+          <t>358</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>-480</t>
+          <t>-558</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -1902,7 +1906,7 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>-480</t>
+          <t>-558</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
@@ -1912,17 +1916,17 @@
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>-200</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>506</t>
+          <t>358</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>-480</t>
+          <t>-558</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
@@ -1932,7 +1936,7 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>-480</t>
+          <t>-558</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
@@ -1949,23 +1953,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>442</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>453</t>
+          <t>486</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
+          <t>-44</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1067</t>
+          <t>956</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1975,23 +1983,27 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>442</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>453</t>
+          <t>486</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr"/>
+          <t>-44</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>1067</t>
+          <t>956</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -2001,17 +2013,17 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>-480</t>
+          <t>-558</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>453</t>
+          <t>486</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>-933</t>
+          <t>-1044</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
@@ -2021,7 +2033,7 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>-933</t>
+          <t>-1044</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
@@ -2031,17 +2043,17 @@
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>-480</t>
+          <t>-558</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>453</t>
+          <t>486</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>-933</t>
+          <t>-1044</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
@@ -2051,7 +2063,7 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>-933</t>
+          <t>-1044</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
@@ -2068,23 +2080,23 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1067</t>
+          <t>956</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>517</t>
+          <t>523</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>433</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>433</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -2094,23 +2106,23 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>1067</t>
+          <t>956</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>517</t>
+          <t>523</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>433</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>433</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -2120,17 +2132,17 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>-933</t>
+          <t>-1044</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>517</t>
+          <t>523</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>-1450</t>
+          <t>-1567</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
@@ -2140,7 +2152,7 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>-450</t>
+          <t>-567</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
@@ -2150,17 +2162,17 @@
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>-933</t>
+          <t>-1044</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>517</t>
+          <t>523</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>-1450</t>
+          <t>-1567</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
@@ -2170,7 +2182,7 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>-450</t>
+          <t>-567</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
@@ -2187,23 +2199,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>433</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>505</t>
+          <t>491</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
+          <t>-58</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1045</t>
+          <t>942</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -2213,23 +2229,27 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>433</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>505</t>
+          <t>491</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr"/>
+          <t>-58</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>1045</t>
+          <t>942</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -2239,17 +2259,17 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>-450</t>
+          <t>-567</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>505</t>
+          <t>491</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>-955</t>
+          <t>-1058</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
@@ -2259,7 +2279,7 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>-955</t>
+          <t>-1058</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
@@ -2269,17 +2289,17 @@
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>-450</t>
+          <t>-567</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>505</t>
+          <t>491</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>-955</t>
+          <t>-1058</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
@@ -2289,7 +2309,7 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>-955</t>
+          <t>-1058</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
@@ -2306,23 +2326,23 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1045</t>
+          <t>942</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>471</t>
+          <t>419</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>574</t>
+          <t>523</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>574</t>
+          <t>523</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -2332,23 +2352,23 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>1045</t>
+          <t>942</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>471</t>
+          <t>419</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>574</t>
+          <t>523</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>574</t>
+          <t>523</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -2358,17 +2378,17 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>-955</t>
+          <t>-1058</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>471</t>
+          <t>419</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>-1426</t>
+          <t>-1477</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
@@ -2378,7 +2398,7 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>-1426</t>
+          <t>-1477</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
@@ -2388,17 +2408,17 @@
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>-955</t>
+          <t>-1058</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>471</t>
+          <t>419</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>-1426</t>
+          <t>-1477</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
@@ -2408,7 +2428,7 @@
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>-1426</t>
+          <t>-1477</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
@@ -2425,23 +2445,23 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>574</t>
+          <t>523</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>441</t>
+          <t>406</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>117</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1133</t>
+          <t>1117</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -2451,23 +2471,23 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>574</t>
+          <t>523</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>441</t>
+          <t>406</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>117</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>1133</t>
+          <t>1117</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -2477,17 +2497,17 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>-1426</t>
+          <t>-1477</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>441</t>
+          <t>406</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>-1867</t>
+          <t>-1883</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
@@ -2497,7 +2517,7 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>-867</t>
+          <t>-883</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
@@ -2507,17 +2527,17 @@
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>-1426</t>
+          <t>-1477</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>441</t>
+          <t>406</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>-1867</t>
+          <t>-1883</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
@@ -2527,7 +2547,7 @@
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>-867</t>
+          <t>-883</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
@@ -2544,23 +2564,23 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1133</t>
+          <t>1117</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>409</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>708</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>708</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -2570,23 +2590,23 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>1133</t>
+          <t>1117</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>409</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>708</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>708</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -2596,17 +2616,17 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>-867</t>
+          <t>-883</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>409</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>-1300</t>
+          <t>-1292</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
@@ -2616,7 +2636,7 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>-1300</t>
+          <t>-1292</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
@@ -2626,17 +2646,17 @@
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>-867</t>
+          <t>-883</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>409</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>-1300</t>
+          <t>-1292</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
@@ -2646,7 +2666,7 @@
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>-1300</t>
+          <t>-1292</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
@@ -2663,23 +2683,23 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>708</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>518</t>
+          <t>413</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>295</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>295</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -2689,23 +2709,23 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>708</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>518</t>
+          <t>413</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>295</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>1182</t>
+          <t>1295</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -2715,17 +2735,17 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>-1300</t>
+          <t>-1292</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>518</t>
+          <t>413</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>-1818</t>
+          <t>-1705</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
@@ -2735,7 +2755,7 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>-1818</t>
+          <t>-1705</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
@@ -2745,17 +2765,17 @@
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>-1300</t>
+          <t>-1292</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>518</t>
+          <t>413</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>-1818</t>
+          <t>-1705</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
@@ -2765,7 +2785,7 @@
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>-1818</t>
+          <t>-1705</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
@@ -2782,17 +2802,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>295</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>427</t>
+          <t>412</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>-245</t>
+          <t>-117</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -2802,7 +2822,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>755</t>
+          <t>883</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -2812,43 +2832,43 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>1182</t>
+          <t>1295</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>427</t>
+          <t>412</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>755</t>
+          <t>883</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>755</t>
+          <t>883</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>-1818</t>
+          <t>-1705</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>427</t>
+          <t>412</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>-2245</t>
+          <t>-2117</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
@@ -2858,7 +2878,7 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>-1245</t>
+          <t>-1117</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
@@ -2868,17 +2888,17 @@
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>-1818</t>
+          <t>-1705</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>427</t>
+          <t>412</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>-2245</t>
+          <t>-2117</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
@@ -2888,7 +2908,7 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>-1245</t>
+          <t>-1117</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
@@ -2905,23 +2925,23 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>755</t>
+          <t>883</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>357</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>526</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>526</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -2931,43 +2951,43 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>755</t>
+          <t>883</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>357</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>526</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
-          <t>1300</t>
+          <t>526</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>-1245</t>
+          <t>-1117</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>357</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>-1700</t>
+          <t>-1474</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
@@ -2977,7 +2997,7 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>-1700</t>
+          <t>-1474</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
@@ -2987,17 +3007,17 @@
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>-1245</t>
+          <t>-1117</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>357</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>-1700</t>
+          <t>-1474</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
@@ -3007,7 +3027,7 @@
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>-1700</t>
+          <t>-1474</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
@@ -3024,27 +3044,23 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>526</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>478</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>-61</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>939</t>
+          <t>1048</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -3054,23 +3070,23 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>1300</t>
+          <t>526</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>478</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>939</t>
+          <t>48</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
-          <t>939</t>
+          <t>1048</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -3080,17 +3096,17 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>-1700</t>
+          <t>-1474</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>478</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>-2061</t>
+          <t>-1952</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
@@ -3100,7 +3116,7 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>-2061</t>
+          <t>-1952</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
@@ -3110,17 +3126,17 @@
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>-1700</t>
+          <t>-1474</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>478</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>-2061</t>
+          <t>-1952</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
@@ -3130,7 +3146,7 @@
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>-2061</t>
+          <t>-1952</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
@@ -3147,23 +3163,23 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>939</t>
+          <t>1048</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>479</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>569</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>569</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -3173,23 +3189,23 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>939</t>
+          <t>1048</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>479</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>569</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>569</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -3199,17 +3215,17 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>-2061</t>
+          <t>-1952</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>479</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>-2463</t>
+          <t>-2431</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
@@ -3219,7 +3235,7 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>-1463</t>
+          <t>-1431</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
@@ -3229,17 +3245,17 @@
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>-2061</t>
+          <t>-1952</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>479</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>-2463</t>
+          <t>-2431</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
@@ -3249,7 +3265,7 @@
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>-1463</t>
+          <t>-1431</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
@@ -3266,23 +3282,23 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>569</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>407</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>162</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1080</t>
+          <t>1162</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -3292,23 +3308,23 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>569</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>407</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>162</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
-          <t>1080</t>
+          <t>1162</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -3318,17 +3334,17 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>-1463</t>
+          <t>-1431</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>407</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>-1920</t>
+          <t>-1838</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
@@ -3338,7 +3354,7 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>-1920</t>
+          <t>-1838</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
@@ -3348,17 +3364,17 @@
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>-1463</t>
+          <t>-1431</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>407</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>-1920</t>
+          <t>-1838</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
@@ -3368,7 +3384,7 @@
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>-1920</t>
+          <t>-1838</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
@@ -3385,49 +3401,49 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1080</t>
+          <t>1162</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>542</t>
+          <t>492</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>538</t>
+          <t>670</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>538</t>
+          <t>670</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>1080</t>
+          <t>1162</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>542</t>
+          <t>492</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>538</t>
+          <t>670</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
-          <t>538</t>
+          <t>670</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -3437,17 +3453,17 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>-1920</t>
+          <t>-1838</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>542</t>
+          <t>492</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>-2462</t>
+          <t>-2330</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
@@ -3457,7 +3473,7 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>-2462</t>
+          <t>-2330</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
@@ -3467,17 +3483,17 @@
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>-1920</t>
+          <t>-1838</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>542</t>
+          <t>492</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>-2462</t>
+          <t>-2330</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
@@ -3487,7 +3503,7 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>-2462</t>
+          <t>-2330</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
@@ -3504,49 +3520,49 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>538</t>
+          <t>670</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>406</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>264</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>1182</t>
+          <t>264</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>538</t>
+          <t>670</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>406</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>264</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
-          <t>1182</t>
+          <t>1264</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -3556,17 +3572,17 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>-2462</t>
+          <t>-2330</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>406</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>-2818</t>
+          <t>-2736</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
@@ -3576,7 +3592,7 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>-1818</t>
+          <t>-1736</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
@@ -3586,17 +3602,17 @@
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>-2462</t>
+          <t>-2330</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>406</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>-2818</t>
+          <t>-2736</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
@@ -3606,7 +3622,7 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>-1818</t>
+          <t>-1736</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
@@ -3623,23 +3639,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1182</t>
+          <t>264</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>464</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>739</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr"/>
+          <t>-200</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>739</t>
+          <t>800</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -3649,43 +3669,43 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>1182</t>
+          <t>1264</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>464</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>739</t>
+          <t>800</t>
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
-          <t>739</t>
+          <t>800</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>-1818</t>
+          <t>-1736</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>464</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>-2261</t>
+          <t>-2200</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
@@ -3695,7 +3715,7 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>-2261</t>
+          <t>-2200</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
@@ -3705,17 +3725,17 @@
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>-1818</t>
+          <t>-1736</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>464</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>-2261</t>
+          <t>-2200</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
@@ -3725,7 +3745,7 @@
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>-2261</t>
+          <t>-2200</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
@@ -3742,23 +3762,23 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>739</t>
+          <t>800</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>375</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>425</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>425</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -3768,43 +3788,43 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>739</t>
+          <t>800</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>375</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>425</t>
         </is>
       </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
-          <t>1358</t>
+          <t>425</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>-2261</t>
+          <t>-2200</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>375</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>-2642</t>
+          <t>-2575</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
@@ -3814,7 +3834,7 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>-2642</t>
+          <t>-2575</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
@@ -3824,17 +3844,17 @@
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>-2261</t>
+          <t>-2200</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>375</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>-2642</t>
+          <t>-2575</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
@@ -3844,7 +3864,7 @@
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>-2642</t>
+          <t>-2575</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
@@ -3861,17 +3881,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>425</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>442</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>-79</t>
+          <t>-17</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -3881,7 +3901,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>921</t>
+          <t>983</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -3891,23 +3911,27 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>1358</t>
+          <t>425</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>442</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>921</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr"/>
+          <t>-17</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>921</t>
+          <t>983</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -3917,17 +3941,17 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>-2642</t>
+          <t>-2575</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>442</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>-3079</t>
+          <t>-3017</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
@@ -3937,7 +3961,7 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>-2079</t>
+          <t>-2017</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
@@ -3947,17 +3971,17 @@
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>-2642</t>
+          <t>-2575</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>442</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>-3079</t>
+          <t>-3017</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
@@ -3967,7 +3991,7 @@
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>-2079</t>
+          <t>-2017</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
@@ -3984,23 +4008,23 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>921</t>
+          <t>983</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>523</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>460</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>460</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -4010,23 +4034,23 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>921</t>
+          <t>983</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>523</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>460</t>
         </is>
       </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>460</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -4036,17 +4060,17 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>-2079</t>
+          <t>-2017</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>523</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>-2616</t>
+          <t>-2540</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
@@ -4056,7 +4080,7 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>-2616</t>
+          <t>-2540</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
@@ -4066,17 +4090,17 @@
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>-2079</t>
+          <t>-2017</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>523</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>-2616</t>
+          <t>-2540</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
@@ -4086,7 +4110,7 @@
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>-2616</t>
+          <t>-2540</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
@@ -4103,17 +4127,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>460</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>541</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>-77</t>
+          <t>-81</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -4123,7 +4147,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>923</t>
+          <t>919</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -4133,17 +4157,17 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>460</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>541</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>-77</t>
+          <t>-81</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -4153,7 +4177,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>923</t>
+          <t>919</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -4163,17 +4187,17 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>-2616</t>
+          <t>-2540</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>541</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>-3077</t>
+          <t>-3081</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
@@ -4183,7 +4207,7 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>-3077</t>
+          <t>-3081</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
@@ -4193,17 +4217,17 @@
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>-2616</t>
+          <t>-2540</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>541</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>-3077</t>
+          <t>-3081</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
@@ -4213,7 +4237,7 @@
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>-3077</t>
+          <t>-3081</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
@@ -4230,12 +4254,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>923</t>
+          <t>919</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>389</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -4256,12 +4280,12 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>923</t>
+          <t>919</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>389</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -4282,12 +4306,12 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>-3077</t>
+          <t>-3081</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>389</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -4312,12 +4336,12 @@
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>-3077</t>
+          <t>-3081</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>389</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">

--- a/Order.xlsx
+++ b/Order.xlsx
@@ -507,13 +507,13 @@
         <v>668</v>
       </c>
       <c r="G2" t="n">
-        <v>1169</v>
+        <v>1210</v>
       </c>
       <c r="H2" t="n">
         <v>13</v>
       </c>
       <c r="I2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -542,13 +542,13 @@
         <v>795</v>
       </c>
       <c r="G3" t="n">
-        <v>1295</v>
+        <v>1348</v>
       </c>
       <c r="H3" t="n">
         <v>13</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -780,18 +780,18 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>399</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>601</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>601</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -806,18 +806,18 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>399</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>601</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>601</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -832,18 +832,18 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>399</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>601</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>601</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -858,18 +858,18 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>399</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>601</t>
         </is>
       </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>601</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -886,23 +886,23 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>601</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>456</t>
+          <t>449</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>152</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1169</t>
+          <t>1152</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -912,23 +912,23 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>601</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>456</t>
+          <t>449</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>152</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>1169</t>
+          <t>1152</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -938,23 +938,23 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>601</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>456</t>
+          <t>449</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>152</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>152</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -964,23 +964,23 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>601</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>456</t>
+          <t>449</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>152</t>
         </is>
       </c>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>152</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
@@ -997,23 +997,23 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1169</t>
+          <t>1152</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>422</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>735</t>
+          <t>730</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>735</t>
+          <t>730</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -1023,23 +1023,23 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1169</t>
+          <t>1152</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>422</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>735</t>
+          <t>730</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>735</t>
+          <t>730</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -1049,17 +1049,17 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>152</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>422</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>-265</t>
+          <t>-270</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>735</t>
+          <t>730</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -1079,17 +1079,17 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>152</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>422</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>-265</t>
+          <t>-270</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
@@ -1099,7 +1099,7 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>735</t>
+          <t>730</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
@@ -1116,23 +1116,23 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>735</t>
+          <t>730</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>485</t>
+          <t>507</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>223</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>223</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -1142,23 +1142,23 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>735</t>
+          <t>730</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>485</t>
+          <t>507</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>223</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>1250</t>
+          <t>1223</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -1168,23 +1168,23 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>735</t>
+          <t>730</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>485</t>
+          <t>507</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>223</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>223</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -1194,23 +1194,23 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>735</t>
+          <t>730</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>485</t>
+          <t>507</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>223</t>
         </is>
       </c>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>223</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
@@ -1227,17 +1227,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>223</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>488</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-239</t>
+          <t>-265</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1247,7 +1247,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>761</t>
+          <t>735</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -1257,23 +1257,23 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1250</t>
+          <t>1223</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>488</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>761</t>
+          <t>735</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>761</t>
+          <t>735</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -1283,17 +1283,17 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>223</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>488</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>-239</t>
+          <t>-265</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>-239</t>
+          <t>-265</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
@@ -1313,17 +1313,17 @@
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>223</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>488</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>-239</t>
+          <t>-265</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>-239</t>
+          <t>-265</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
@@ -1350,23 +1350,23 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>761</t>
+          <t>735</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>492</t>
+          <t>484</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>251</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>251</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1376,23 +1376,23 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>761</t>
+          <t>735</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>492</t>
+          <t>484</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>251</t>
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>1269</t>
+          <t>1251</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -1402,17 +1402,17 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>-239</t>
+          <t>-265</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>492</t>
+          <t>484</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>-731</t>
+          <t>-749</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -1422,7 +1422,7 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>251</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -1432,17 +1432,17 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>-239</t>
+          <t>-265</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>492</t>
+          <t>484</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>-731</t>
+          <t>-749</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>251</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
@@ -1469,17 +1469,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>251</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>540</t>
+          <t>463</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-271</t>
+          <t>-212</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1489,7 +1489,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>729</t>
+          <t>788</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1499,23 +1499,23 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>1269</t>
+          <t>1251</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>540</t>
+          <t>463</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>729</t>
+          <t>788</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>729</t>
+          <t>788</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -1525,17 +1525,17 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>251</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>540</t>
+          <t>463</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>-271</t>
+          <t>-212</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
@@ -1545,7 +1545,7 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>-271</t>
+          <t>-212</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
@@ -1555,17 +1555,17 @@
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>251</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>540</t>
+          <t>463</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>-271</t>
+          <t>-212</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
@@ -1575,7 +1575,7 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>-271</t>
+          <t>-212</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
@@ -1592,23 +1592,23 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>729</t>
+          <t>788</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>499</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>289</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>289</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1618,23 +1618,23 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>729</t>
+          <t>788</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>499</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>289</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>1220</t>
+          <t>1289</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1644,17 +1644,17 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>-271</t>
+          <t>-212</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>499</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>-780</t>
+          <t>-711</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -1664,7 +1664,7 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>-780</t>
+          <t>-711</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
@@ -1674,17 +1674,17 @@
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>-271</t>
+          <t>-212</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>499</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>-780</t>
+          <t>-711</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
@@ -1694,7 +1694,7 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>-780</t>
+          <t>-711</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
@@ -1711,17 +1711,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>289</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>554</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-200</t>
+          <t>-265</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1731,7 +1731,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>735</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1741,43 +1741,43 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>1220</t>
+          <t>1289</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>554</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>735</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>735</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>-780</t>
+          <t>-711</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>554</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>-1200</t>
+          <t>-1265</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
@@ -1787,7 +1787,7 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>-200</t>
+          <t>-265</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
@@ -1797,17 +1797,17 @@
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>-780</t>
+          <t>-711</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>554</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>-1200</t>
+          <t>-1265</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
@@ -1817,7 +1817,7 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>-200</t>
+          <t>-265</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
@@ -1834,23 +1834,23 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>735</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>476</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>259</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>259</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1860,43 +1860,43 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>735</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>476</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>259</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>1259</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>-200</t>
+          <t>-265</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>476</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>-558</t>
+          <t>-741</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -1906,7 +1906,7 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>-558</t>
+          <t>-741</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
@@ -1916,17 +1916,17 @@
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>-200</t>
+          <t>-265</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>476</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>-558</t>
+          <t>-741</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
@@ -1936,7 +1936,7 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>-558</t>
+          <t>-741</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
@@ -1953,17 +1953,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>259</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>486</t>
+          <t>344</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>-44</t>
+          <t>-85</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1973,7 +1973,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>956</t>
+          <t>915</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1983,27 +1983,23 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>1259</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>486</t>
+          <t>344</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>-44</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+          <t>915</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>956</t>
+          <t>915</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -2013,17 +2009,17 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>-558</t>
+          <t>-741</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>486</t>
+          <t>344</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>-1044</t>
+          <t>-1085</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
@@ -2033,7 +2029,7 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>-1044</t>
+          <t>-1085</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
@@ -2043,17 +2039,17 @@
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>-558</t>
+          <t>-741</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>486</t>
+          <t>344</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>-1044</t>
+          <t>-1085</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
@@ -2063,7 +2059,7 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>-1044</t>
+          <t>-1085</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
@@ -2080,23 +2076,23 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>956</t>
+          <t>915</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>391</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>524</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>524</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -2106,23 +2102,23 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>956</t>
+          <t>915</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>391</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>524</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>524</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -2132,17 +2128,17 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>-1044</t>
+          <t>-1085</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>391</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>-1567</t>
+          <t>-1476</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
@@ -2152,7 +2148,7 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>-567</t>
+          <t>-476</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
@@ -2162,17 +2158,17 @@
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>-1044</t>
+          <t>-1085</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>391</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>-1567</t>
+          <t>-1476</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
@@ -2182,7 +2178,7 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>-567</t>
+          <t>-476</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
@@ -2199,27 +2195,23 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>524</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>491</t>
+          <t>447</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>-58</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>942</t>
+          <t>1077</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -2229,27 +2221,23 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>524</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>491</t>
+          <t>447</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>-58</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>942</t>
+          <t>1077</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -2259,17 +2247,17 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>-567</t>
+          <t>-476</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>491</t>
+          <t>447</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>-1058</t>
+          <t>-923</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
@@ -2279,7 +2267,7 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>-1058</t>
+          <t>-923</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
@@ -2289,17 +2277,17 @@
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>-567</t>
+          <t>-476</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>491</t>
+          <t>447</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>-1058</t>
+          <t>-923</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
@@ -2309,7 +2297,7 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>-1058</t>
+          <t>-923</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
@@ -2326,23 +2314,23 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>942</t>
+          <t>1077</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>548</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>529</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>529</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -2352,23 +2340,23 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>942</t>
+          <t>1077</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>548</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>529</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>529</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -2378,17 +2366,17 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>-1058</t>
+          <t>-923</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>548</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>-1477</t>
+          <t>-1471</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
@@ -2398,7 +2386,7 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>-1477</t>
+          <t>-1471</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
@@ -2408,17 +2396,17 @@
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>-1058</t>
+          <t>-923</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>548</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>-1477</t>
+          <t>-1471</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
@@ -2428,7 +2416,7 @@
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>-1477</t>
+          <t>-1471</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
@@ -2445,23 +2433,23 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>529</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>350</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>179</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1117</t>
+          <t>1179</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -2471,23 +2459,23 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>529</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>350</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>179</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>1117</t>
+          <t>1179</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -2497,17 +2485,17 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>-1477</t>
+          <t>-1471</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>350</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>-1883</t>
+          <t>-1821</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
@@ -2517,7 +2505,7 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>-883</t>
+          <t>-821</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
@@ -2527,17 +2515,17 @@
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>-1477</t>
+          <t>-1471</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>350</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>-1883</t>
+          <t>-1821</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
@@ -2547,7 +2535,7 @@
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>-883</t>
+          <t>-821</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
@@ -2564,23 +2552,23 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1117</t>
+          <t>1179</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>414</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>708</t>
+          <t>765</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>708</t>
+          <t>765</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -2590,23 +2578,23 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>1117</t>
+          <t>1179</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>414</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>708</t>
+          <t>765</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>708</t>
+          <t>765</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -2616,17 +2604,17 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>-883</t>
+          <t>-821</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>414</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>-1292</t>
+          <t>-1235</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
@@ -2636,7 +2624,7 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>-1292</t>
+          <t>-1235</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
@@ -2646,17 +2634,17 @@
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>-883</t>
+          <t>-821</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>414</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>-1292</t>
+          <t>-1235</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
@@ -2666,7 +2654,7 @@
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>-1292</t>
+          <t>-1235</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
@@ -2683,23 +2671,23 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>708</t>
+          <t>765</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>413</t>
+          <t>417</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>348</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>348</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -2709,23 +2697,23 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>708</t>
+          <t>765</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>413</t>
+          <t>417</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>348</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>1295</t>
+          <t>1348</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -2735,17 +2723,17 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>-1292</t>
+          <t>-1235</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>413</t>
+          <t>417</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>-1705</t>
+          <t>-1652</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
@@ -2755,7 +2743,7 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>-1705</t>
+          <t>-1652</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
@@ -2765,17 +2753,17 @@
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>-1292</t>
+          <t>-1235</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>413</t>
+          <t>417</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>-1705</t>
+          <t>-1652</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
@@ -2785,7 +2773,7 @@
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>-1705</t>
+          <t>-1652</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
@@ -2802,17 +2790,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>348</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>378</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>-117</t>
+          <t>-30</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -2822,7 +2810,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>883</t>
+          <t>970</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -2832,23 +2820,23 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>1295</t>
+          <t>1348</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>378</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>883</t>
+          <t>970</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>883</t>
+          <t>970</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -2858,17 +2846,17 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>-1705</t>
+          <t>-1652</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>378</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>-2117</t>
+          <t>-2030</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
@@ -2878,7 +2866,7 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>-1117</t>
+          <t>-1030</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
@@ -2888,17 +2876,17 @@
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>-1705</t>
+          <t>-1652</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>378</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>-2117</t>
+          <t>-2030</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
@@ -2908,7 +2896,7 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>-1117</t>
+          <t>-1030</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
@@ -2925,23 +2913,23 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>883</t>
+          <t>970</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>481</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>489</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>489</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -2951,23 +2939,23 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>883</t>
+          <t>970</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>481</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>489</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>489</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -2977,17 +2965,17 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>-1117</t>
+          <t>-1030</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>481</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>-1474</t>
+          <t>-1511</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
@@ -2997,7 +2985,7 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>-1474</t>
+          <t>-1511</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
@@ -3007,17 +2995,17 @@
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>-1117</t>
+          <t>-1030</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>481</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>-1474</t>
+          <t>-1511</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
@@ -3027,7 +3015,7 @@
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>-1474</t>
+          <t>-1511</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
@@ -3044,23 +3032,23 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>489</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>410</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>79</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1048</t>
+          <t>1079</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -3070,23 +3058,23 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>489</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>410</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>79</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
-          <t>1048</t>
+          <t>1079</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -3096,17 +3084,17 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>-1474</t>
+          <t>-1511</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>410</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>-1952</t>
+          <t>-1921</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
@@ -3116,7 +3104,7 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>-1952</t>
+          <t>-1921</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
@@ -3126,17 +3114,17 @@
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>-1474</t>
+          <t>-1511</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>410</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>-1952</t>
+          <t>-1921</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
@@ -3146,7 +3134,7 @@
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>-1952</t>
+          <t>-1921</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
@@ -3163,23 +3151,23 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1048</t>
+          <t>1079</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>479</t>
+          <t>520</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>569</t>
+          <t>559</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>569</t>
+          <t>559</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -3189,23 +3177,23 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>1048</t>
+          <t>1079</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>479</t>
+          <t>520</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>569</t>
+          <t>559</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
-          <t>569</t>
+          <t>559</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -3215,17 +3203,17 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>-1952</t>
+          <t>-1921</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>479</t>
+          <t>520</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>-2431</t>
+          <t>-2441</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
@@ -3235,7 +3223,7 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>-1431</t>
+          <t>-1441</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
@@ -3245,17 +3233,17 @@
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>-1952</t>
+          <t>-1921</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>479</t>
+          <t>520</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>-2431</t>
+          <t>-2441</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
@@ -3265,7 +3253,7 @@
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>-1431</t>
+          <t>-1441</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
@@ -3282,23 +3270,23 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>569</t>
+          <t>559</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>407</t>
+          <t>449</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>110</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1162</t>
+          <t>1110</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -3308,23 +3296,23 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>569</t>
+          <t>559</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>407</t>
+          <t>449</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>110</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
-          <t>1162</t>
+          <t>1110</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -3334,17 +3322,17 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>-1431</t>
+          <t>-1441</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>407</t>
+          <t>449</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>-1838</t>
+          <t>-1890</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
@@ -3354,7 +3342,7 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>-1838</t>
+          <t>-1890</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
@@ -3364,17 +3352,17 @@
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>-1431</t>
+          <t>-1441</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>407</t>
+          <t>449</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>-1838</t>
+          <t>-1890</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
@@ -3384,7 +3372,7 @@
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>-1838</t>
+          <t>-1890</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
@@ -3401,49 +3389,49 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1162</t>
+          <t>1110</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>492</t>
+          <t>449</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>670</t>
+          <t>661</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>670</t>
+          <t>661</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>1162</t>
+          <t>1110</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>492</t>
+          <t>449</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>670</t>
+          <t>661</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
-          <t>670</t>
+          <t>661</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -3453,17 +3441,17 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>-1838</t>
+          <t>-1890</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>492</t>
+          <t>449</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>-2330</t>
+          <t>-2339</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
@@ -3473,7 +3461,7 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>-2330</t>
+          <t>-2339</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
@@ -3483,17 +3471,17 @@
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>-1838</t>
+          <t>-1890</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>492</t>
+          <t>449</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>-2330</t>
+          <t>-2339</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
@@ -3503,7 +3491,7 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>-2330</t>
+          <t>-2339</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
@@ -3520,49 +3508,49 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>670</t>
+          <t>661</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>451</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>210</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>1210</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>670</t>
+          <t>661</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>451</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>210</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
-          <t>1264</t>
+          <t>1210</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -3572,17 +3560,17 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>-2330</t>
+          <t>-2339</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>451</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>-2736</t>
+          <t>-2790</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
@@ -3592,7 +3580,7 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>-1736</t>
+          <t>-1790</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
@@ -3602,17 +3590,17 @@
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>-2330</t>
+          <t>-2339</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>451</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>-2736</t>
+          <t>-2790</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
@@ -3622,7 +3610,7 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>-1736</t>
+          <t>-1790</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
@@ -3639,27 +3627,23 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>1210</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>417</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>-200</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+          <t>793</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>793</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -3669,43 +3653,43 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>1264</t>
+          <t>1210</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>417</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>793</t>
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>793</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>-1736</t>
+          <t>-1790</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>417</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>-2200</t>
+          <t>-2207</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
@@ -3715,7 +3699,7 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>-2200</t>
+          <t>-2207</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
@@ -3725,17 +3709,17 @@
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>-1736</t>
+          <t>-1790</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>417</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>-2200</t>
+          <t>-2207</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
@@ -3745,7 +3729,7 @@
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>-2200</t>
+          <t>-2207</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
@@ -3762,23 +3746,23 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>793</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>449</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>344</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>344</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -3788,43 +3772,43 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>793</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>449</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>344</t>
         </is>
       </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>1344</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>-2200</t>
+          <t>-2207</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>449</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>-2575</t>
+          <t>-2656</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
@@ -3834,7 +3818,7 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>-2575</t>
+          <t>-2656</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
@@ -3844,17 +3828,17 @@
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>-2200</t>
+          <t>-2207</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>449</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>-2575</t>
+          <t>-2656</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
@@ -3864,7 +3848,7 @@
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>-2575</t>
+          <t>-2656</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
@@ -3881,17 +3865,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>344</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>508</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>-17</t>
+          <t>-164</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -3901,7 +3885,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>983</t>
+          <t>836</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -3911,27 +3895,23 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>1344</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>508</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>-17</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+          <t>836</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
-          <t>983</t>
+          <t>836</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -3941,17 +3921,17 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>-2575</t>
+          <t>-2656</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>508</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>-3017</t>
+          <t>-3164</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
@@ -3961,7 +3941,7 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>-2017</t>
+          <t>-2164</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
@@ -3971,17 +3951,17 @@
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>-2575</t>
+          <t>-2656</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>508</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>-3017</t>
+          <t>-3164</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
@@ -3991,7 +3971,7 @@
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>-2017</t>
+          <t>-2164</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
@@ -4008,23 +3988,23 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>983</t>
+          <t>836</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>390</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>446</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>446</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -4034,23 +4014,23 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>983</t>
+          <t>836</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>390</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>446</t>
         </is>
       </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>446</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -4060,17 +4040,17 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>-2017</t>
+          <t>-2164</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>390</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>-2540</t>
+          <t>-2554</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
@@ -4080,7 +4060,7 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>-2540</t>
+          <t>-2554</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
@@ -4090,17 +4070,17 @@
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>-2017</t>
+          <t>-2164</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>390</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>-2540</t>
+          <t>-2554</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
@@ -4110,7 +4090,7 @@
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>-2540</t>
+          <t>-2554</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
@@ -4127,27 +4107,23 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>446</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>541</t>
+          <t>435</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>-81</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>919</t>
+          <t>1011</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -4157,27 +4133,23 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>446</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>541</t>
+          <t>435</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>-81</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
-          <t>919</t>
+          <t>1011</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -4187,17 +4159,17 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>-2540</t>
+          <t>-2554</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>541</t>
+          <t>435</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>-3081</t>
+          <t>-2989</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
@@ -4207,7 +4179,7 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>-3081</t>
+          <t>-2989</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
@@ -4217,17 +4189,17 @@
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>-2540</t>
+          <t>-2554</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>541</t>
+          <t>435</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>-3081</t>
+          <t>-2989</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
@@ -4237,7 +4209,7 @@
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>-3081</t>
+          <t>-2989</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
@@ -4254,12 +4226,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>919</t>
+          <t>1011</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>481</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -4280,12 +4252,12 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>919</t>
+          <t>1011</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>481</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -4306,12 +4278,12 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>-3081</t>
+          <t>-2989</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>481</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -4336,12 +4308,12 @@
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>-3081</t>
+          <t>-2989</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>481</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
